--- a/Source_Data/Source Data for Figure 5.xlsx
+++ b/Source_Data/Source Data for Figure 5.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo.Lenovo-PC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE984A96-0695-4F54-BEF0-4BC26ACD276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 5d" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -59,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +161,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -202,7 +196,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,31 +373,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA29A0D5-54B0-477A-A662-8A6724EE6BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" s="1" customFormat="1">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" s="1" customFormat="1">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -414,118 +408,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.1886889999999999E-3</v>
+        <v>0.114932203144002</v>
       </c>
       <c r="D6">
-        <v>1.004122E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1.0036620248797701</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2.30898E-3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3.1482549999999998E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3.1745900716739599</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2.1835399999999999E-3</v>
+        <v>0.22298186126252098</v>
       </c>
       <c r="D8">
-        <v>2.083018E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2.0918264198030503</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>2.8186370000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.27962171670971997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2.775787E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.28068715855350901</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>3.023897E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3.0320802067846002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>4.82268E-4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>9.8182500000000006E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.981299552298457</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2.5829260000000001E-3</v>
+        <v>0.25285042388255702</v>
       </c>
       <c r="D13">
-        <v>1.3522960000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1.3658974121237</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>2.086503E-3</v>
+        <v>0.211139508051647</v>
       </c>
       <c r="D14">
-        <v>2.089038E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2.08593233020291</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-5.0753409999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+        <v>-0.51599196186857299</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2.4740069999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0.24777772335540099</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>9.1745409999999996E-3</v>
+        <v>0.91926315099982703</v>
       </c>
     </row>
   </sheetData>

--- a/Source_Data/Source Data for Figure 5.xlsx
+++ b/Source_Data/Source Data for Figure 5.xlsx
@@ -1,69 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Haoshan Chen\Desktop\新建文件夹\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42091F-D4B3-4000-8BB4-87AA746D29C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5d" sheetId="3" r:id="rId1"/>
+    <sheet name="Figure 5h" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
-  <si>
-    <t>tTAN and tTAC</t>
-  </si>
-  <si>
-    <t>second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>% dF/F</t>
-  </si>
-  <si>
-    <t>Session</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>First</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sucrose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Omission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Second Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAc-Amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mPFC-Amy</t>
+  </si>
+  <si>
+    <t>mPFC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mPFC-NAc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tTAC (ctrl)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tTAN (ctrl)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dF/F (%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -76,6 +108,29 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,15 +150,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,157 +433,859 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="1" max="2" width="8.6640625" style="2"/>
+    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" s="1" customFormat="1">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" s="1" customFormat="1">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>0.114932203144002</v>
-      </c>
-      <c r="D6">
-        <v>1.0036620248797701</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>3.1745900716739599</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>0.22298186126252098</v>
-      </c>
-      <c r="D8">
-        <v>2.0918264198030503</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0.27962171670971997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>0.28068715855350901</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>3.0320802067846002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0.981299552298457</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.25285042388255702</v>
-      </c>
-      <c r="D13">
-        <v>1.3658974121237</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0.211139508051647</v>
-      </c>
-      <c r="D14">
-        <v>2.08593233020291</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>-0.51599196186857299</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0.24777772335540099</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0.91926315099982703</v>
+      <c r="C6" s="2">
+        <v>0.39567352500000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.61204046202720497</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.17018423796667001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.2260023044632398</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.4301564135725204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.15863666200000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.28939563169381599</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.6316346125790999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.2816737608476201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.150102293</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.39161263302914201</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.22773010123770701</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5.8052022685611497</v>
+      </c>
+      <c r="G8" s="2">
+        <v>4.4867611223086694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.29197169499999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.47666900675363105</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.38900794398218297</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.6069884994238102</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.9016161379499796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.15873228</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.203493087335651</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.52437161656317699</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.6986524335161199</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.5586726559558799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.13697411500000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5218285905537199</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.6524077539618802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.706477971096233</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.4455322982742294</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.4719175315698205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.16349369699999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.55208331608970995</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.147075633019738</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.4285179223545894</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.0460036182896599</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9.1114489340054803</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.5326844853975992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.40560435299999997</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.160082059617177</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.11535982657128799</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.7660112841183402</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.9436884005262698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.63206027617111293</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.52011415193690702</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.5671343510765601</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-6.1625026999999999E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.36504873367137702</v>
+      </c>
+      <c r="F17" s="2">
+        <v>7.4327625210952304</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4.6814526265060694</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.24625941500000001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.51761084341687802</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.18245646297040402</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.37594924980157</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5.2982501341192902</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.233737569664622</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.36375694193024199</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3.18118265413099</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.7547399555168899</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-0.29908092400000003</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>6.2624695171537601</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5.5470719500213201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.58349223779237502</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.42784668801580999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>6.9178647468974699</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.1186390093694101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.166167604</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.31602611573251899</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.321279677975775</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8.2674216133822789</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5.8491492935846701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.18703092199999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.151535604208338</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.148993852332931</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3.10814434381536</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5.3312210114023495</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.11057532921107699</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.3123328476742</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.2502374252884099</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.10681896</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.10813692118718</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.8057481733891898</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.51807573969432597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.109555842534246</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-0.166235358255512</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.17730367576515</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1.15743876356534</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.11848352089303901</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-9.3674040980047099E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1.79464245919904</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5.27208896292835E-2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-4.9076179043330101E-2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.52832720669565902</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.18959871128981801</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.20850120950941803</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="2">
+        <v>7.2850820999999996E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-0.29140860621775899</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.0365373515409899</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2.96432706401822</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.15818935100000001</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.25019246063440104</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.4316124106038601</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1.2029104340988699</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.50038845798827492</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-0.13128382148347401</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-1.09230391879372</v>
+      </c>
+      <c r="G32" s="2">
+        <v>-1.1556966703279501</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.109675847673381</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-0.47493021153424703</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.2886827177135598</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.66641573199735</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.17914024251038499</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4.2403435526734903</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2.6745061336129803</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2">
+        <v>-0.120294576</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-0.226827280416384</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2.8663163573580697</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2.7429755805699401</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.30291793299999997</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.38294116787196997</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-0.245022100548237</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3.1070363677994601</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2.2098404482695599</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>-8.8328314000000005E-2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-0.105698633818171</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1.09645726382756</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-0.10480125433847401</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.89843918891409891</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>-0.15456378100000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-9.6509024772045704E-2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-0.21412272459447801</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3.8218033203159099</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2.9827230875099602</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <v>-0.19696614200000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-0.209148287846701</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.55633885842833208</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>-1.3903994731399301</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.10682137437688199</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.36846514873519504</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
